--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="140">
   <si>
     <t>Iteration</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>acsforsdk2</t>
-  </si>
-  <si>
-    <t>DnDCustScript</t>
   </si>
   <si>
     <t>Scenario11</t>
@@ -766,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -800,6 +797,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1107,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1252,31 +1257,31 @@
         <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AJ1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AO1" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="AP1" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AQ1" s="21"/>
     </row>
@@ -1294,10 +1299,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>36</v>
@@ -1321,13 +1326,13 @@
         <v>41</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="4" t="s">
@@ -1364,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="AM2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO2" t="s">
         <v>110</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>111</v>
       </c>
       <c r="AP2" s="20">
         <v>0</v>
@@ -1390,10 +1395,10 @@
         <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
@@ -1417,13 +1422,13 @@
         <v>41</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="4" t="s">
@@ -1460,13 +1465,13 @@
         <v>1</v>
       </c>
       <c r="AM3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" t="s">
         <v>110</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>111</v>
       </c>
       <c r="AP3" s="20">
         <v>0</v>
@@ -1486,10 +1491,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>36</v>
@@ -1513,16 +1518,16 @@
         <v>41</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>42</v>
@@ -1537,7 +1542,7 @@
         <v>79</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>78</v>
@@ -1570,13 +1575,13 @@
         <v>1</v>
       </c>
       <c r="AM4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO4" t="s">
         <v>110</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>111</v>
       </c>
       <c r="AP4" s="20">
         <v>0</v>
@@ -1596,10 +1601,10 @@
         <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>36</v>
@@ -1623,16 +1628,16 @@
         <v>41</v>
       </c>
       <c r="N5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>42</v>
@@ -1647,7 +1652,7 @@
         <v>79</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>78</v>
@@ -1659,10 +1664,10 @@
         <v>41</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3" t="s">
@@ -1684,13 +1689,13 @@
         <v>1</v>
       </c>
       <c r="AM5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP5" s="20">
         <v>0</v>
@@ -1710,10 +1715,10 @@
         <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>36</v>
@@ -1737,16 +1742,16 @@
         <v>41</v>
       </c>
       <c r="N6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>42</v>
@@ -1761,7 +1766,7 @@
         <v>79</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>78</v>
@@ -1794,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="AM6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP6" s="20">
         <v>0</v>
@@ -1820,10 +1825,10 @@
         <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>36</v>
@@ -1847,16 +1852,16 @@
         <v>41</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>42</v>
@@ -1871,7 +1876,7 @@
         <v>79</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>78</v>
@@ -1904,13 +1909,13 @@
         <v>1</v>
       </c>
       <c r="AM7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP7" s="20">
         <v>0</v>
@@ -1930,10 +1935,10 @@
         <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>36</v>
@@ -1957,16 +1962,16 @@
         <v>41</v>
       </c>
       <c r="N8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="Q8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>42</v>
@@ -1981,7 +1986,7 @@
         <v>79</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>78</v>
@@ -2014,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="AM8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP8" s="20">
         <v>0</v>
@@ -2040,10 +2045,10 @@
         <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>36</v>
@@ -2067,16 +2072,16 @@
         <v>41</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>42</v>
@@ -2091,13 +2096,13 @@
         <v>79</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>78</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>41</v>
@@ -2126,13 +2131,13 @@
         <v>1</v>
       </c>
       <c r="AM9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP9" s="20">
         <v>0</v>
@@ -2152,10 +2157,10 @@
         <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>36</v>
@@ -2179,16 +2184,16 @@
         <v>41</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>42</v>
@@ -2203,7 +2208,7 @@
         <v>79</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>78</v>
@@ -2238,13 +2243,13 @@
         <v>1</v>
       </c>
       <c r="AM10" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP10" s="20">
         <v>0</v>
@@ -2264,10 +2269,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>36</v>
@@ -2291,16 +2296,16 @@
         <v>41</v>
       </c>
       <c r="N11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="Q11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>42</v>
@@ -2315,7 +2320,7 @@
         <v>79</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>78</v>
@@ -2337,7 +2342,7 @@
       </c>
       <c r="AE11" s="3"/>
       <c r="AF11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
@@ -2348,13 +2353,13 @@
         <v>1</v>
       </c>
       <c r="AM11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP11" s="20">
         <v>0</v>
@@ -2374,10 +2379,10 @@
         <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>36</v>
@@ -2401,16 +2406,16 @@
         <v>41</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>42</v>
@@ -2425,7 +2430,7 @@
         <v>79</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>78</v>
@@ -2448,7 +2453,7 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH12" s="3"/>
       <c r="AK12" s="7">
@@ -2458,13 +2463,13 @@
         <v>1</v>
       </c>
       <c r="AM12" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP12" s="20">
         <v>0</v>
@@ -2478,16 +2483,16 @@
         <v>51</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="15" t="s">
@@ -2509,16 +2514,16 @@
         <v>41</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>41</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>42</v>
@@ -2533,19 +2538,19 @@
         <v>79</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W13" s="15" t="s">
         <v>78</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
@@ -2557,38 +2562,39 @@
       </c>
       <c r="AE13" s="16"/>
       <c r="AF13" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN13" t="s">
         <v>128</v>
       </c>
-      <c r="AH13" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI13" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ13" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>129</v>
-      </c>
       <c r="AO13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP13" s="20">
         <v>0</v>
       </c>
+      <c r="AQ13" s="23"/>
     </row>
     <row r="14" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -2598,16 +2604,16 @@
         <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="3" t="s">
@@ -2629,16 +2635,16 @@
         <v>41</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>42</v>
@@ -2653,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>78</v>
@@ -2674,11 +2680,11 @@
         <v>45</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
@@ -2690,19 +2696,20 @@
         <v>1</v>
       </c>
       <c r="AM14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP14" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="23"/>
+    </row>
+    <row r="15" spans="1:43" s="28" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>17</v>
       </c>
@@ -2710,111 +2717,111 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="O15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="R15" s="4" t="s">
+      <c r="Q15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="W15" s="3" t="s">
+      <c r="V15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="3" t="s">
+      <c r="X15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AD15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="3" t="s">
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ15" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN15" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="AH15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ15" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP15" s="20">
+      <c r="AO15" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP15" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2826,16 +2833,16 @@
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>75</v>
@@ -2856,16 +2863,16 @@
         <v>41</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>42</v>
@@ -2880,13 +2887,13 @@
         <v>79</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>78</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>41</v>
@@ -2898,41 +2905,42 @@
         <v>45</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN16" t="s">
         <v>128</v>
       </c>
-      <c r="AH16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ16" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>129</v>
-      </c>
       <c r="AO16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP16" s="20">
         <v>0</v>
       </c>
+      <c r="AQ16" s="23"/>
     </row>
     <row r="17" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -2942,16 +2950,16 @@
         <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>75</v>
@@ -2972,16 +2980,16 @@
         <v>41</v>
       </c>
       <c r="N17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="Q17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>42</v>
@@ -2996,13 +3004,13 @@
         <v>79</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>78</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y17" s="10" t="s">
         <v>41</v>
@@ -3017,13 +3025,13 @@
         <v>66</v>
       </c>
       <c r="AH17" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI17" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ17" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK17" s="7">
         <v>1</v>
@@ -3032,17 +3040,18 @@
         <v>1</v>
       </c>
       <c r="AM17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP17" s="20">
         <v>0</v>
       </c>
+      <c r="AQ17" s="23"/>
     </row>
     <row r="18" spans="1:71" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -3052,16 +3061,16 @@
         <v>33</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>75</v>
@@ -3082,16 +3091,16 @@
         <v>41</v>
       </c>
       <c r="N18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="Q18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>42</v>
@@ -3106,7 +3115,7 @@
         <v>79</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>78</v>
@@ -3124,25 +3133,25 @@
         <v>45</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN18" t="s">
         <v>128</v>
       </c>
-      <c r="AK18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>129</v>
-      </c>
       <c r="AO18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP18" s="20">
         <v>0</v>
@@ -3153,112 +3162,112 @@
     </row>
     <row r="21" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BS31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="51:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3279,6 +3288,7 @@
     <hyperlink ref="R4:R18" r:id="rId5" display="http://localhost:8080/MyHelloWorld"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3297,57 +3307,57 @@
   <sheetData>
     <row r="4" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
